--- a/Industry_User_Interface.xlsx
+++ b/Industry_User_Interface.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26TrilateralProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26 Software Framework\Indutrial Case_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59AAEB-6875-42C4-B1F1-335421708742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDFC70-C4CF-4C1B-8B3E-E039997DFF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,12 @@
     <sheet name="NET_CI_DATA" sheetId="15" r:id="rId15"/>
     <sheet name="NET_COST_DATA" sheetId="16" r:id="rId16"/>
     <sheet name="TECH_IMPLEMENTATION_TIME" sheetId="17" r:id="rId17"/>
+    <sheet name="Results_Period_1" sheetId="18" r:id="rId18"/>
+    <sheet name="Results_Period_2" sheetId="19" r:id="rId19"/>
+    <sheet name="Results_Period_3" sheetId="20" r:id="rId20"/>
+    <sheet name="Results_Period_4" sheetId="21" r:id="rId21"/>
+    <sheet name="Results_Period_5" sheetId="22" r:id="rId22"/>
+    <sheet name="Results_Period_6" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="289">
   <si>
     <t>CO2 Emissions / million t</t>
   </si>
@@ -875,6 +881,45 @@
   </si>
   <si>
     <t>TABLE 14: TECHNOLOGY IMPLEMENTATION TIME</t>
+  </si>
+  <si>
+    <t>Energy Generation</t>
+  </si>
+  <si>
+    <t>Gross Energy (TWh/y)</t>
+  </si>
+  <si>
+    <t>CO2 Intensity (Mt/TWh)</t>
+  </si>
+  <si>
+    <t>CCS_1 Selection</t>
+  </si>
+  <si>
+    <t>CCS_1 Ret (TWh/y)</t>
+  </si>
+  <si>
+    <t>Gas_2 Selection</t>
+  </si>
+  <si>
+    <t>GAS_2 (TWh/y)</t>
+  </si>
+  <si>
+    <t>Net Energy (TWh/y)</t>
+  </si>
+  <si>
+    <t>CO2 Load (Mt/y)</t>
+  </si>
+  <si>
+    <t>Total Cost (mil USD/y)</t>
+  </si>
+  <si>
+    <t>EP_NET_3</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>BECCS</t>
   </si>
 </sst>
 </file>
@@ -885,7 +930,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +967,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -968,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1286,6 +1337,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1295,7 +1361,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1303,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1419,9 +1500,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,6 +1519,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1807,18 +1900,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="42" customWidth="1"/>
-    <col min="2" max="8" width="22" style="42" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="41" customWidth="1"/>
+    <col min="2" max="8" width="22" style="41" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41">
+      <c r="A1" s="40">
         <v>2005</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="20">
@@ -1826,7 +1919,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20">
@@ -1835,7 +1928,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -1843,7 +1936,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="17">
@@ -1852,7 +1945,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="21">
@@ -1862,12 +1955,12 @@
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="20">
@@ -1875,7 +1968,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="20">
@@ -1884,7 +1977,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="17">
@@ -1892,7 +1985,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="17">
@@ -1901,7 +1994,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="20">
@@ -1910,7 +2003,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="18">
@@ -1920,44 +2013,44 @@
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="42">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="41">
         <f>B22/20</f>
         <v>2.65E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>2019</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="41">
         <v>2020</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="C19" s="17">
@@ -1989,10 +2082,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="A21" s="41">
         <v>2028</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C21" s="17">
@@ -2021,7 +2114,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
+      <c r="A23" s="41">
         <v>2031</v>
       </c>
       <c r="B23" s="16">
@@ -2038,7 +2131,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>2032</v>
       </c>
       <c r="B24" s="16">
@@ -2055,7 +2148,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
+      <c r="A25" s="41">
         <v>2033</v>
       </c>
       <c r="B25" s="16">
@@ -2072,7 +2165,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>2034</v>
       </c>
       <c r="B26" s="16">
@@ -2106,7 +2199,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>2036</v>
       </c>
       <c r="B28" s="16">
@@ -2123,7 +2216,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
+      <c r="A29" s="41">
         <v>2037</v>
       </c>
       <c r="B29" s="16">
@@ -2140,7 +2233,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>2038</v>
       </c>
       <c r="B30" s="16">
@@ -2157,7 +2250,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="41">
         <v>2039</v>
       </c>
       <c r="B31" s="16">
@@ -2191,7 +2284,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
+      <c r="A33" s="41">
         <v>2041</v>
       </c>
       <c r="B33" s="16">
@@ -2208,7 +2301,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>2042</v>
       </c>
       <c r="B34" s="16">
@@ -2225,7 +2318,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
+      <c r="A35" s="41">
         <v>2043</v>
       </c>
       <c r="B35" s="16">
@@ -2242,7 +2335,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>2044</v>
       </c>
       <c r="B36" s="16">
@@ -2276,7 +2369,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>2046</v>
       </c>
       <c r="B38" s="16">
@@ -2293,7 +2386,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42">
+      <c r="A39" s="41">
         <v>2047</v>
       </c>
       <c r="B39" s="16">
@@ -2310,7 +2403,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>2048</v>
       </c>
       <c r="B40" s="16">
@@ -2327,7 +2420,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42">
+      <c r="A41" s="41">
         <v>2049</v>
       </c>
       <c r="B41" s="16">
@@ -2362,29 +2455,29 @@
     </row>
     <row r="43" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>2020</v>
       </c>
       <c r="B46" s="19">
@@ -2403,7 +2496,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
+      <c r="A47" s="41">
         <v>2025</v>
       </c>
       <c r="B47" s="19">
@@ -2419,7 +2512,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>2030</v>
       </c>
       <c r="B48" s="19">
@@ -2438,7 +2531,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42">
+      <c r="A49" s="41">
         <v>2035</v>
       </c>
       <c r="B49" s="19">
@@ -2454,7 +2547,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>2040</v>
       </c>
       <c r="B50" s="19">
@@ -2473,7 +2566,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42">
+      <c r="A51" s="41">
         <v>2045</v>
       </c>
       <c r="B51" s="19">
@@ -2490,7 +2583,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>2050</v>
       </c>
       <c r="B52" s="19">
@@ -2611,65 +2704,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="26" style="46" customWidth="1"/>
-    <col min="6" max="75" width="9.140625" style="46" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="5" width="26" style="45" customWidth="1"/>
+    <col min="6" max="75" width="9.140625" style="45" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2764,65 +2857,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" style="46" customWidth="1"/>
-    <col min="4" max="75" width="9.140625" style="46" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="25.7109375" style="45" customWidth="1"/>
+    <col min="4" max="75" width="9.140625" style="45" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2917,65 +3010,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" style="46" customWidth="1"/>
-    <col min="4" max="75" width="9.140625" style="46" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="25.5703125" style="45" customWidth="1"/>
+    <col min="4" max="75" width="9.140625" style="45" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3070,65 +3163,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" style="46" customWidth="1"/>
-    <col min="4" max="75" width="9.140625" style="46" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="25.7109375" style="45" customWidth="1"/>
+    <col min="4" max="75" width="9.140625" style="45" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3223,201 +3316,201 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="46" customWidth="1"/>
-    <col min="5" max="9" width="21.5703125" style="46" customWidth="1"/>
-    <col min="10" max="86" width="9.140625" style="46" customWidth="1"/>
-    <col min="87" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="21.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="45" customWidth="1"/>
+    <col min="5" max="9" width="21.5703125" style="45" customWidth="1"/>
+    <col min="10" max="86" width="9.140625" style="45" customWidth="1"/>
+    <col min="87" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="48" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3629,11 +3722,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="21.5703125" style="46" customWidth="1"/>
+    <col min="1" max="14" width="21.5703125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3647,177 +3740,177 @@
       <c r="A4" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="48" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3912,11 +4005,11 @@
       <c r="G17" s="4">
         <v>-5.4</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3995,13 +4088,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="21.5703125" style="46" customWidth="1"/>
-    <col min="15" max="93" width="9.140625" style="46" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="14" width="21.5703125" style="45" customWidth="1"/>
+    <col min="15" max="93" width="9.140625" style="45" customWidth="1"/>
+    <col min="94" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4017,177 +4110,177 @@
       <c r="A4" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="48" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4362,14 +4455,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="21.5703125" style="46" customWidth="1"/>
-    <col min="14" max="18" width="21.42578125" style="46" customWidth="1"/>
-    <col min="19" max="93" width="9.140625" style="46" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="13" width="21.5703125" style="45" customWidth="1"/>
+    <col min="14" max="18" width="21.42578125" style="45" customWidth="1"/>
+    <col min="19" max="93" width="9.140625" style="45" customWidth="1"/>
+    <col min="94" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4385,126 +4478,126 @@
       <c r="A4" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="38" t="s">
         <v>35</v>
       </c>
@@ -4521,12 +4614,12 @@
       <c r="A11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="38" t="s">
         <v>43</v>
       </c>
@@ -4543,193 +4636,193 @@
       <c r="A12" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
     </row>
     <row r="20" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="Q20" s="44" t="s">
+      <c r="Q20" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="R20" s="44" t="s">
+      <c r="R20" s="43" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5073,6 +5166,12 @@
     <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
@@ -5080,12 +5179,6 @@
     <mergeCell ref="A19:R19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B21:R26" xr:uid="{00000000-0002-0000-1000-000000000000}">
@@ -5094,6 +5187,684 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.85546875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>0</v>
+      </c>
+      <c r="K3" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <v>0</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>10</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>10</v>
+      </c>
+      <c r="K6" s="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-1.2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="41">
+        <v>10</v>
+      </c>
+      <c r="K8" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="41">
+        <v>0</v>
+      </c>
+      <c r="K9" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="41">
+        <v>14</v>
+      </c>
+      <c r="L12" s="41">
+        <v>1652.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.7109375" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>0</v>
+      </c>
+      <c r="K3" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>5.28</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2.09</v>
+      </c>
+      <c r="J5" s="41">
+        <v>5.28</v>
+      </c>
+      <c r="K5" s="41">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>14.72</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>14.72</v>
+      </c>
+      <c r="K6" s="41">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-1.2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J8" s="41">
+        <v>20</v>
+      </c>
+      <c r="K8" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="41">
+        <v>0</v>
+      </c>
+      <c r="K9" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="41">
+        <v>25</v>
+      </c>
+      <c r="L12" s="41">
+        <v>3100.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5107,7 +5878,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="16.42578125" style="46" customWidth="1"/>
+    <col min="1" max="9" width="16.42578125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5143,28 +5914,28 @@
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>1</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5172,52 +5943,52 @@
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="41">
         <v>2</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <v>3</v>
       </c>
     </row>
@@ -5226,386 +5997,386 @@
       <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="42">
+      <c r="H39" s="41">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="42">
+      <c r="H41" s="41">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="42">
+      <c r="H42" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="42">
+      <c r="H43" s="41">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="42">
+      <c r="H44" s="41">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="42">
+      <c r="H45" s="41">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="42">
+      <c r="H46" s="41">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="42">
+      <c r="H47" s="41">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" s="42">
+      <c r="H48" s="41">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="42">
+      <c r="H49" s="41">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="42">
+      <c r="H50" s="41">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="42">
+      <c r="H51" s="41">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" s="42">
+      <c r="H52" s="41">
         <v>50</v>
       </c>
     </row>
@@ -5614,12 +6385,1368 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.7109375" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="K3" s="41">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>12.58</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2.09</v>
+      </c>
+      <c r="J5" s="41">
+        <v>12.58</v>
+      </c>
+      <c r="K5" s="41">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>0</v>
+      </c>
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-1.2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="41">
+        <v>12.58</v>
+      </c>
+      <c r="K8" s="41">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="41">
+        <v>20</v>
+      </c>
+      <c r="L12" s="41">
+        <v>4567.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.85546875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="K3" s="41">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>5.12</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1</v>
+      </c>
+      <c r="G5" s="41">
+        <v>3.04</v>
+      </c>
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2.09</v>
+      </c>
+      <c r="J5" s="41">
+        <v>4.33</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>17.45</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41">
+        <v>17.45</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>12.91</v>
+      </c>
+      <c r="K6" s="41">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-1.2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>5.33</v>
+      </c>
+      <c r="K7" s="41">
+        <v>-6.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="J8" s="41">
+        <v>22.58</v>
+      </c>
+      <c r="K8" s="41">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="41">
+        <v>13.47</v>
+      </c>
+      <c r="L12" s="41">
+        <v>3258.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.5703125" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
+        <v>20.96</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>20.96</v>
+      </c>
+      <c r="K3" s="41">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>10.84</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1</v>
+      </c>
+      <c r="G5" s="41">
+        <v>8.75</v>
+      </c>
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2.09</v>
+      </c>
+      <c r="J5" s="41">
+        <v>8.56</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>18.2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41">
+        <v>18.2</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>13.47</v>
+      </c>
+      <c r="K6" s="41">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-1.2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>10.55</v>
+      </c>
+      <c r="K7" s="41">
+        <v>-12.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="41">
+        <v>29.04</v>
+      </c>
+      <c r="K8" s="41">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="41">
+        <v>10</v>
+      </c>
+      <c r="L12" s="41">
+        <v>3907.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.7109375" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="41">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
+        <v>21.3</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41">
+        <v>0</v>
+      </c>
+      <c r="J3" s="41">
+        <v>21.3</v>
+      </c>
+      <c r="K3" s="41">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41">
+        <v>20</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>20</v>
+      </c>
+      <c r="K4" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>20.5</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1</v>
+      </c>
+      <c r="G5" s="41">
+        <v>18.41</v>
+      </c>
+      <c r="H5" s="41">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41">
+        <v>2.09</v>
+      </c>
+      <c r="J5" s="41">
+        <v>15.71</v>
+      </c>
+      <c r="K5" s="41">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
+        <v>18.2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41">
+        <v>18.2</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <v>13.47</v>
+      </c>
+      <c r="K6" s="41">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-1.2</v>
+      </c>
+      <c r="J7" s="41">
+        <v>13.4</v>
+      </c>
+      <c r="K7" s="41">
+        <v>-16.079999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="J8" s="41">
+        <v>18.7</v>
+      </c>
+      <c r="K8" s="41">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="41">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="K9" s="41">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="41">
+        <v>5</v>
+      </c>
+      <c r="L12" s="41">
+        <v>5003.3100000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,262 +7756,262 @@
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="55" width="9.140625" style="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="53" width="9.140625" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-    </row>
-    <row r="11" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+    </row>
+    <row r="11" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="48" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>116</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+    <row r="26" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="28" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5894,8 +8021,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="5">
@@ -5905,16 +8032,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-    </row>
-    <row r="33" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34" t="s">
         <v>127</v>
       </c>
@@ -5931,8 +8058,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -5951,8 +8078,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5971,8 +8098,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="12">
@@ -5996,8 +8123,8 @@
         <v>5.125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>89</v>
       </c>
       <c r="B37" s="12">
@@ -6016,8 +8143,8 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:6" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="35">
@@ -6037,7 +8164,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="30">
@@ -6057,7 +8184,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="30">
@@ -6077,10 +8204,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
@@ -6116,19 +8243,19 @@
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F64" s="42" t="s">
+      <c r="F64" s="41" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6136,36 +8263,36 @@
       <c r="A65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="42" t="s">
+      <c r="F66" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6173,152 +8300,422 @@
       <c r="B67" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="42" t="s">
+      <c r="F67" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42" t="s">
+      <c r="C68" s="41"/>
+      <c r="D68" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42" t="s">
+      <c r="E68" s="41"/>
+      <c r="F68" s="41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42" t="s">
+      <c r="C69" s="41"/>
+      <c r="D69" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42" t="s">
+      <c r="E69" s="41"/>
+      <c r="F69" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42" t="s">
+      <c r="C70" s="41"/>
+      <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42" t="s">
+      <c r="E70" s="41"/>
+      <c r="F70" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42" t="s">
+      <c r="C71" s="41"/>
+      <c r="D71" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42" t="s">
+      <c r="E71" s="41"/>
+      <c r="F71" s="41" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42" t="s">
+      <c r="C72" s="41"/>
+      <c r="D72" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42" t="s">
+      <c r="E72" s="41"/>
+      <c r="F72" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42" t="s">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42" t="s">
+      <c r="E73" s="41"/>
+      <c r="F73" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42" t="s">
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42" t="s">
+      <c r="E74" s="41"/>
+      <c r="F74" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42" t="s">
+      <c r="E75" s="41"/>
+      <c r="F75" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42" t="s">
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42" t="s">
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42" t="s">
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42" t="s">
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="50">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="50">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6337,7 +8734,7 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B8:E8"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Optimisation Choice" prompt="Please select your choice of optimisation" sqref="B30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$28:$A$29</formula1>
     </dataValidation>
@@ -6359,11 +8756,14 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B35:F35" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>$B$64:$B$72</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>$B$84:$B$87</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Please select the number of energy planning periods_x000a_" sqref="B31" xr:uid="{00000000-0002-0000-0200-000007000000}">
-      <formula1>#REF!</formula1>
+      <formula1>$C$84:$C$133</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25 B39:F40" xr:uid="{00000000-0002-0000-0200-000008000000}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39:F40" xr:uid="{D2059D65-3CA2-4755-8D40-3AE3E9839D85}">
+      <formula1>$C$84:$C$133</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6383,88 +8783,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="25.5703125" style="45" customWidth="1"/>
-    <col min="11" max="47" width="9.140625" style="45" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="10" width="25.5703125" style="44" customWidth="1"/>
+    <col min="11" max="47" width="9.140625" style="44" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="61"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6596,192 +8996,192 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="46" customWidth="1"/>
-    <col min="5" max="9" width="21.5703125" style="46" customWidth="1"/>
-    <col min="10" max="81" width="9.140625" style="46" customWidth="1"/>
-    <col min="82" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="21.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="45" customWidth="1"/>
+    <col min="5" max="9" width="21.5703125" style="45" customWidth="1"/>
+    <col min="10" max="81" width="9.140625" style="45" customWidth="1"/>
+    <col min="82" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="63"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="63"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6961,11 +9361,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H2:I2"/>
@@ -6974,6 +9369,11 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6993,134 +9393,134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="46" customWidth="1"/>
-    <col min="5" max="6" width="21.5703125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="46" customWidth="1"/>
-    <col min="8" max="43" width="9.140625" style="46" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="21.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="45" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="45" customWidth="1"/>
+    <col min="8" max="43" width="9.140625" style="45" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7290,135 +9690,135 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" style="46" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="46" customWidth="1"/>
-    <col min="8" max="43" width="9.140625" style="46" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="6" width="25.7109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="45" customWidth="1"/>
+    <col min="8" max="43" width="9.140625" style="45" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="16">
         <f>1/0.000001/4/1000000</f>
         <v>0.25</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7588,240 +9988,240 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="46" customWidth="1"/>
-    <col min="5" max="9" width="21.5703125" style="46" customWidth="1"/>
-    <col min="10" max="15" width="21.7109375" style="46" customWidth="1"/>
-    <col min="16" max="82" width="9.140625" style="46" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="21.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="45" customWidth="1"/>
+    <col min="5" max="9" width="21.5703125" style="45" customWidth="1"/>
+    <col min="10" max="15" width="21.7109375" style="45" customWidth="1"/>
+    <col min="16" max="82" width="9.140625" style="45" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -7830,84 +10230,84 @@
       <c r="B18" s="32">
         <v>0.2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
     </row>
     <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="43" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8195,6 +10595,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A20:O20"/>
@@ -8203,17 +10614,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8233,240 +10633,240 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="46" customWidth="1"/>
-    <col min="5" max="9" width="21.5703125" style="46" customWidth="1"/>
-    <col min="10" max="15" width="21.28515625" style="46" customWidth="1"/>
-    <col min="16" max="82" width="9.140625" style="46" customWidth="1"/>
-    <col min="83" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="3" width="21.5703125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="45" customWidth="1"/>
+    <col min="5" max="9" width="21.5703125" style="45" customWidth="1"/>
+    <col min="10" max="15" width="21.28515625" style="45" customWidth="1"/>
+    <col min="16" max="82" width="9.140625" style="45" customWidth="1"/>
+    <col min="83" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -8475,84 +10875,84 @@
       <c r="B18" s="32">
         <v>0.2</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
     </row>
     <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="43" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8840,6 +11240,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A20:O20"/>
@@ -8848,17 +11259,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
